--- a/biology/Botanique/Dill/Dill..xlsx
+++ b/biology/Botanique/Dill/Dill..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jakob Dillen ou Dillenius, né le 22 décembre 1684 à Darmstadt et mort le 13 avril 1747 à Oxford, est un botaniste britannique d'origine allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université de Giessen où il fait paraître plusieurs articles sur la botanique dans l'Ephemerides naturae curiosorum et fait paraître en 1719 son Catalogus plantarum sponte circa Gissam nascentium, illustré de figures dessinées et gravées de sa main. De nombreuses nouvelles espèces y sont décrites parmi 980 espèces de phanérogames, 200 de mousses et 160 champignons.
 Il se fait connaître par ses travaux sur les cryptogames et établit la possibilité de tirer l'opium du pavot d'Europe.
